--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -968,13 +968,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
@@ -992,101 +992,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>955</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>992</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>7073</v>
+        <v>246</v>
       </c>
       <c r="C3">
-        <v>6909</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>114443</v>
+        <v>1966</v>
       </c>
       <c r="C4">
-        <v>110376</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>800</v>
+        <v>256</v>
       </c>
       <c r="B5">
-        <v>461578</v>
+        <v>15284</v>
       </c>
       <c r="C5">
-        <v>442969</v>
+        <v>14765</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="B6">
-        <v>909551</v>
+        <v>123336</v>
       </c>
       <c r="C6">
-        <v>870427</v>
+        <v>120413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1200</v>
+        <v>1024</v>
       </c>
       <c r="B7">
-        <v>1564497</v>
+        <v>987865</v>
       </c>
       <c r="C7">
-        <v>1510889</v>
+        <v>948374</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1500</v>
+        <v>2048</v>
       </c>
       <c r="B8">
-        <v>3069055</v>
+        <v>8015784</v>
       </c>
       <c r="C8">
-        <v>3000512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1800</v>
-      </c>
-      <c r="B9">
-        <v>5334622</v>
-      </c>
-      <c r="C9">
-        <v>5195970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10">
-        <v>7573278</v>
-      </c>
-      <c r="C10">
-        <v>7292751</v>
+        <v>7882569</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>对齐</t>
+  </si>
+  <si>
+    <t>AVX x86</t>
   </si>
 </sst>
 </file>
@@ -968,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
@@ -1065,6 +1068,94 @@
       </c>
       <c r="C8">
         <v>7882569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>189</v>
+      </c>
+      <c r="C12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>1418</v>
+      </c>
+      <c r="C13">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>256</v>
+      </c>
+      <c r="B14">
+        <v>10275</v>
+      </c>
+      <c r="C14">
+        <v>10972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>512</v>
+      </c>
+      <c r="B15">
+        <v>83252</v>
+      </c>
+      <c r="C15">
+        <v>90321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1024</v>
+      </c>
+      <c r="B16">
+        <v>667931</v>
+      </c>
+      <c r="C16">
+        <v>758565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2048</v>
+      </c>
+      <c r="B17">
+        <v>5788728</v>
+      </c>
+      <c r="C17">
+        <v>6205491</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>AVX x86</t>
+  </si>
+  <si>
+    <t>AVX优化消去过程</t>
+  </si>
+  <si>
+    <t>AVX优化回代过程</t>
   </si>
 </sst>
 </file>
@@ -971,10 +977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1156,6 +1162,182 @@
       </c>
       <c r="C17">
         <v>6205491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>240</v>
+      </c>
+      <c r="C21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>1806</v>
+      </c>
+      <c r="C22">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>13949</v>
+      </c>
+      <c r="C23">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>112984</v>
+      </c>
+      <c r="C24">
+        <v>38862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>914155</v>
+      </c>
+      <c r="C25">
+        <v>289122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2048</v>
+      </c>
+      <c r="B26">
+        <v>7451105</v>
+      </c>
+      <c r="C26">
+        <v>2393976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>283</v>
+      </c>
+      <c r="C30">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>128</v>
+      </c>
+      <c r="B31">
+        <v>1887</v>
+      </c>
+      <c r="C31">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>256</v>
+      </c>
+      <c r="B32">
+        <v>14695</v>
+      </c>
+      <c r="C32">
+        <v>14832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>512</v>
+      </c>
+      <c r="B33">
+        <v>119634</v>
+      </c>
+      <c r="C33">
+        <v>137648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1024</v>
+      </c>
+      <c r="B34">
+        <v>954175</v>
+      </c>
+      <c r="C34">
+        <v>1064954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2048</v>
+      </c>
+      <c r="B35">
+        <v>7899124</v>
+      </c>
+      <c r="C35">
+        <v>8533357</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>AVX优化回代过程</t>
+  </si>
+  <si>
+    <t>neon arm 不对齐</t>
+  </si>
+  <si>
+    <t>优化消去</t>
+  </si>
+  <si>
+    <t>优化回代</t>
+  </si>
+  <si>
+    <t>整体优化</t>
+  </si>
+  <si>
+    <t>neon arm 对齐</t>
   </si>
 </sst>
 </file>
@@ -977,15 +992,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="4" width="9.54545454545454"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1338,6 +1354,258 @@
       </c>
       <c r="C35">
         <v>8533357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>230</v>
+      </c>
+      <c r="C41">
+        <v>641</v>
+      </c>
+      <c r="D41">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>256</v>
+      </c>
+      <c r="B42">
+        <v>1888</v>
+      </c>
+      <c r="C42">
+        <v>5268</v>
+      </c>
+      <c r="D42">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>512</v>
+      </c>
+      <c r="B43">
+        <v>16307</v>
+      </c>
+      <c r="C43">
+        <v>47262</v>
+      </c>
+      <c r="D43">
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1024</v>
+      </c>
+      <c r="B44">
+        <v>135561</v>
+      </c>
+      <c r="C44">
+        <v>435879</v>
+      </c>
+      <c r="D44">
+        <v>159925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2048</v>
+      </c>
+      <c r="B45">
+        <v>1148299</v>
+      </c>
+      <c r="C45">
+        <v>3856152</v>
+      </c>
+      <c r="D45">
+        <v>1341114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>4096</v>
+      </c>
+      <c r="B46">
+        <v>14694853</v>
+      </c>
+      <c r="C46">
+        <v>34761458</v>
+      </c>
+      <c r="D46">
+        <v>13523986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>128</v>
+      </c>
+      <c r="B53">
+        <v>230</v>
+      </c>
+      <c r="C53">
+        <v>639</v>
+      </c>
+      <c r="D53">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>256</v>
+      </c>
+      <c r="B54">
+        <v>1885</v>
+      </c>
+      <c r="C54">
+        <v>5271</v>
+      </c>
+      <c r="D54">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>512</v>
+      </c>
+      <c r="B55">
+        <v>16415</v>
+      </c>
+      <c r="C55">
+        <v>48236</v>
+      </c>
+      <c r="D55">
+        <v>15602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1024</v>
+      </c>
+      <c r="B56">
+        <v>135512</v>
+      </c>
+      <c r="C56">
+        <v>396068</v>
+      </c>
+      <c r="D56">
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>2048</v>
+      </c>
+      <c r="B57">
+        <v>1087693</v>
+      </c>
+      <c r="C57">
+        <v>3305907</v>
+      </c>
+      <c r="D57">
+        <v>1094219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>4096</v>
+      </c>
+      <c r="B58">
+        <v>12712539</v>
+      </c>
+      <c r="C58">
+        <v>32650110</v>
+      </c>
+      <c r="D58">
+        <v>12432601</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>neon arm 不对齐</t>
+  </si>
+  <si>
+    <t>串行</t>
   </si>
   <si>
     <t>优化消去</t>
@@ -992,16 +995,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="4" width="9.54545454545454"/>
+    <col min="2" max="5" width="9.54545454545454"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1356,7 +1359,7 @@
         <v>8533357</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1369,122 +1372,149 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>12</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>64</v>
       </c>
       <c r="B40">
+        <v>86</v>
+      </c>
+      <c r="C40">
         <v>36</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>83</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>128</v>
       </c>
       <c r="B41">
+        <v>649</v>
+      </c>
+      <c r="C41">
         <v>230</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>641</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>256</v>
       </c>
       <c r="B42">
+        <v>5442</v>
+      </c>
+      <c r="C42">
         <v>1888</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>5268</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1825</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>512</v>
       </c>
       <c r="B43">
+        <v>55646</v>
+      </c>
+      <c r="C43">
         <v>16307</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>47262</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>15622</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>1024</v>
       </c>
       <c r="B44">
+        <v>450039</v>
+      </c>
+      <c r="C44">
         <v>135561</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>435879</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>159925</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2048</v>
       </c>
       <c r="B45">
+        <v>5252176</v>
+      </c>
+      <c r="C45">
         <v>1148299</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3856152</v>
       </c>
-      <c r="D45">
-        <v>1341114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1098246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>4096</v>
       </c>
       <c r="B46">
+        <v>43874880</v>
+      </c>
+      <c r="C46">
         <v>14694853</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>34761458</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>13523986</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1495,116 +1525,143 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>32</v>
       </c>
       <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
         <v>7</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>12</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>64</v>
       </c>
       <c r="B52">
+        <v>85</v>
+      </c>
+      <c r="C52">
         <v>36</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>83</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>128</v>
       </c>
       <c r="B53">
+        <v>650</v>
+      </c>
+      <c r="C53">
         <v>230</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>639</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>256</v>
       </c>
       <c r="B54">
+        <v>5471</v>
+      </c>
+      <c r="C54">
         <v>1885</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>5271</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1828</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>512</v>
       </c>
       <c r="B55">
+        <v>55913</v>
+      </c>
+      <c r="C55">
         <v>16415</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>48236</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>15602</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>1024</v>
       </c>
       <c r="B56">
+        <v>445419</v>
+      </c>
+      <c r="C56">
         <v>135512</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>396068</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>133411</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2048</v>
       </c>
       <c r="B57">
+        <v>3531776</v>
+      </c>
+      <c r="C57">
         <v>1087693</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>3305907</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1094219</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>4096</v>
       </c>
       <c r="B58">
+        <v>41546293</v>
+      </c>
+      <c r="C58">
         <v>12712539</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>32650110</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>12432601</v>
       </c>
     </row>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>neon arm 对齐</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SSE3</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1384,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>12</v>
@@ -1401,13 +1407,13 @@
         <v>86</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>83</v>
       </c>
       <c r="E40">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1415,16 +1421,16 @@
         <v>128</v>
       </c>
       <c r="B41">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C41">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D41">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E41">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1449,16 +1455,16 @@
         <v>512</v>
       </c>
       <c r="B43">
-        <v>55646</v>
+        <v>59066</v>
       </c>
       <c r="C43">
-        <v>16307</v>
+        <v>19822</v>
       </c>
       <c r="D43">
-        <v>47262</v>
+        <v>58642</v>
       </c>
       <c r="E43">
-        <v>15622</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1469,13 +1475,13 @@
         <v>450039</v>
       </c>
       <c r="C44">
-        <v>135561</v>
+        <v>139485</v>
       </c>
       <c r="D44">
         <v>435879</v>
       </c>
       <c r="E44">
-        <v>159925</v>
+        <v>138292</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1483,16 +1489,16 @@
         <v>2048</v>
       </c>
       <c r="B45">
-        <v>5252176</v>
+        <v>3621703</v>
       </c>
       <c r="C45">
-        <v>1148299</v>
+        <v>1278103</v>
       </c>
       <c r="D45">
-        <v>3856152</v>
+        <v>3583085</v>
       </c>
       <c r="E45">
-        <v>1098246</v>
+        <v>1271913</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1500,16 +1506,16 @@
         <v>4096</v>
       </c>
       <c r="B46">
-        <v>43874880</v>
+        <v>51235539</v>
       </c>
       <c r="C46">
-        <v>14694853</v>
+        <v>17949660</v>
       </c>
       <c r="D46">
-        <v>34761458</v>
+        <v>59604247</v>
       </c>
       <c r="E46">
-        <v>13523986</v>
+        <v>25565096</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1534,16 +1540,16 @@
         <v>32</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1551,16 +1557,16 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1568,16 +1574,16 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="C53">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D53">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E53">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1585,16 +1591,16 @@
         <v>256</v>
       </c>
       <c r="B54">
-        <v>5471</v>
+        <v>5432</v>
       </c>
       <c r="C54">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D54">
-        <v>5271</v>
+        <v>5318</v>
       </c>
       <c r="E54">
-        <v>1828</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1602,16 +1608,16 @@
         <v>512</v>
       </c>
       <c r="B55">
-        <v>55913</v>
+        <v>52526</v>
       </c>
       <c r="C55">
-        <v>16415</v>
+        <v>16614</v>
       </c>
       <c r="D55">
-        <v>48236</v>
+        <v>49097</v>
       </c>
       <c r="E55">
-        <v>15602</v>
+        <v>15965</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1625,7 +1631,7 @@
         <v>135512</v>
       </c>
       <c r="D56">
-        <v>396068</v>
+        <v>416068</v>
       </c>
       <c r="E56">
         <v>133411</v>
@@ -1636,16 +1642,16 @@
         <v>2048</v>
       </c>
       <c r="B57">
-        <v>3531776</v>
+        <v>3500474</v>
       </c>
       <c r="C57">
-        <v>1087693</v>
+        <v>1272010</v>
       </c>
       <c r="D57">
-        <v>3305907</v>
+        <v>3672476</v>
       </c>
       <c r="E57">
-        <v>1094219</v>
+        <v>1255825</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1653,16 +1659,240 @@
         <v>4096</v>
       </c>
       <c r="B58">
-        <v>41546293</v>
+        <v>38651868</v>
       </c>
       <c r="C58">
-        <v>12712539</v>
+        <v>15734869</v>
       </c>
       <c r="D58">
-        <v>32650110</v>
+        <v>37399958</v>
       </c>
       <c r="E58">
-        <v>12432601</v>
+        <v>15529827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>128</v>
+      </c>
+      <c r="B63">
+        <v>90</v>
+      </c>
+      <c r="C63">
+        <v>278</v>
+      </c>
+      <c r="D63">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>256</v>
+      </c>
+      <c r="B64">
+        <v>774</v>
+      </c>
+      <c r="C64">
+        <v>2250</v>
+      </c>
+      <c r="D64">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>512</v>
+      </c>
+      <c r="B65">
+        <v>5413</v>
+      </c>
+      <c r="C65">
+        <v>18194</v>
+      </c>
+      <c r="D65">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1024</v>
+      </c>
+      <c r="B66">
+        <v>45787</v>
+      </c>
+      <c r="C66">
+        <v>149472</v>
+      </c>
+      <c r="D66">
+        <v>47110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>2048</v>
+      </c>
+      <c r="B67">
+        <v>728225</v>
+      </c>
+      <c r="C67">
+        <v>1396041</v>
+      </c>
+      <c r="D67">
+        <v>743682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>47</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>128</v>
+      </c>
+      <c r="B73">
+        <v>124</v>
+      </c>
+      <c r="C73">
+        <v>361</v>
+      </c>
+      <c r="D73">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>256</v>
+      </c>
+      <c r="B74">
+        <v>830</v>
+      </c>
+      <c r="C74">
+        <v>2875</v>
+      </c>
+      <c r="D74">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>512</v>
+      </c>
+      <c r="B75">
+        <v>6510</v>
+      </c>
+      <c r="C75">
+        <v>22583</v>
+      </c>
+      <c r="D75">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1024</v>
+      </c>
+      <c r="B76">
+        <v>53679</v>
+      </c>
+      <c r="C76">
+        <v>181155</v>
+      </c>
+      <c r="D76">
+        <v>57320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>2048</v>
+      </c>
+      <c r="B77">
+        <v>649842</v>
+      </c>
+      <c r="C77">
+        <v>1554952</v>
+      </c>
+      <c r="D77">
+        <v>670206</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -49,7 +49,7 @@
     <t>AVX优化回代过程</t>
   </si>
   <si>
-    <t>neon arm 不对齐</t>
+    <t>neon arm 不对齐 -o2</t>
   </si>
   <si>
     <t>串行</t>
@@ -64,13 +64,19 @@
     <t>整体优化</t>
   </si>
   <si>
-    <t>neon arm 对齐</t>
+    <t>neon arm 对齐 -o2</t>
   </si>
   <si>
     <t>SSE</t>
   </si>
   <si>
+    <t>SSE -o2</t>
+  </si>
+  <si>
     <t>SSE3</t>
+  </si>
+  <si>
+    <t>SSE3 -o2</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="5" width="9.54545454545454"/>
@@ -1671,7 +1677,7 @@
         <v>15529827</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1684,108 +1690,204 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>32</v>
       </c>
       <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>34</v>
+      </c>
+      <c r="D61">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>32</v>
+      </c>
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="I61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="J61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>64</v>
       </c>
       <c r="B62">
+        <v>169</v>
+      </c>
+      <c r="C62">
+        <v>249</v>
+      </c>
+      <c r="D62">
+        <v>165</v>
+      </c>
+      <c r="G62">
+        <v>64</v>
+      </c>
+      <c r="H62">
         <v>13</v>
       </c>
-      <c r="C62">
+      <c r="I62">
         <v>36</v>
       </c>
-      <c r="D62">
+      <c r="J62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>128</v>
       </c>
       <c r="B63">
+        <v>1178</v>
+      </c>
+      <c r="C63">
+        <v>1945</v>
+      </c>
+      <c r="D63">
+        <v>1170</v>
+      </c>
+      <c r="G63">
+        <v>128</v>
+      </c>
+      <c r="H63">
         <v>90</v>
       </c>
-      <c r="C63">
+      <c r="I63">
         <v>278</v>
       </c>
-      <c r="D63">
+      <c r="J63">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>256</v>
       </c>
       <c r="B64">
+        <v>8685</v>
+      </c>
+      <c r="C64">
+        <v>14987</v>
+      </c>
+      <c r="D64">
+        <v>8959</v>
+      </c>
+      <c r="G64">
+        <v>256</v>
+      </c>
+      <c r="H64">
         <v>774</v>
       </c>
-      <c r="C64">
+      <c r="I64">
         <v>2250</v>
       </c>
-      <c r="D64">
+      <c r="J64">
         <v>643</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>512</v>
       </c>
       <c r="B65">
+        <v>68650</v>
+      </c>
+      <c r="C65">
+        <v>120949</v>
+      </c>
+      <c r="D65">
+        <v>70050</v>
+      </c>
+      <c r="G65">
+        <v>512</v>
+      </c>
+      <c r="H65">
         <v>5413</v>
       </c>
-      <c r="C65">
+      <c r="I65">
         <v>18194</v>
       </c>
-      <c r="D65">
+      <c r="J65">
         <v>5405</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>1024</v>
       </c>
       <c r="B66">
+        <v>538807</v>
+      </c>
+      <c r="C66">
+        <v>974042</v>
+      </c>
+      <c r="D66">
+        <v>522676</v>
+      </c>
+      <c r="G66">
+        <v>1024</v>
+      </c>
+      <c r="H66">
         <v>45787</v>
       </c>
-      <c r="C66">
+      <c r="I66">
         <v>149472</v>
       </c>
-      <c r="D66">
+      <c r="J66">
         <v>47110</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>2048</v>
       </c>
       <c r="B67">
+        <v>4308499</v>
+      </c>
+      <c r="C67">
+        <v>7651892</v>
+      </c>
+      <c r="D67">
+        <v>4362003</v>
+      </c>
+      <c r="G67">
+        <v>2048</v>
+      </c>
+      <c r="H67">
         <v>728225</v>
       </c>
-      <c r="C67">
+      <c r="I67">
         <v>1396041</v>
       </c>
-      <c r="D67">
+      <c r="J67">
         <v>743682</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -1796,102 +1898,198 @@
       <c r="D70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>32</v>
       </c>
       <c r="B71">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>34</v>
+      </c>
+      <c r="D71">
+        <v>31</v>
+      </c>
+      <c r="G71">
+        <v>32</v>
+      </c>
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="C71">
+      <c r="I71">
         <v>6</v>
       </c>
-      <c r="D71">
+      <c r="J71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>64</v>
       </c>
       <c r="B72">
+        <v>209</v>
+      </c>
+      <c r="C72">
+        <v>253</v>
+      </c>
+      <c r="D72">
+        <v>223</v>
+      </c>
+      <c r="G72">
+        <v>64</v>
+      </c>
+      <c r="H72">
         <v>20</v>
       </c>
-      <c r="C72">
+      <c r="I72">
         <v>47</v>
       </c>
-      <c r="D72">
+      <c r="J72">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>128</v>
       </c>
       <c r="B73">
+        <v>1512</v>
+      </c>
+      <c r="C73">
+        <v>2005</v>
+      </c>
+      <c r="D73">
+        <v>1539</v>
+      </c>
+      <c r="G73">
+        <v>128</v>
+      </c>
+      <c r="H73">
         <v>124</v>
       </c>
-      <c r="C73">
+      <c r="I73">
         <v>361</v>
       </c>
-      <c r="D73">
+      <c r="J73">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>256</v>
       </c>
       <c r="B74">
+        <v>10974</v>
+      </c>
+      <c r="C74">
+        <v>14905</v>
+      </c>
+      <c r="D74">
+        <v>11684</v>
+      </c>
+      <c r="G74">
+        <v>256</v>
+      </c>
+      <c r="H74">
         <v>830</v>
       </c>
-      <c r="C74">
+      <c r="I74">
         <v>2875</v>
       </c>
-      <c r="D74">
+      <c r="J74">
         <v>788</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>512</v>
       </c>
       <c r="B75">
+        <v>90062</v>
+      </c>
+      <c r="C75">
+        <v>120494</v>
+      </c>
+      <c r="D75">
+        <v>89566</v>
+      </c>
+      <c r="G75">
+        <v>512</v>
+      </c>
+      <c r="H75">
         <v>6510</v>
       </c>
-      <c r="C75">
+      <c r="I75">
         <v>22583</v>
       </c>
-      <c r="D75">
+      <c r="J75">
         <v>6921</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>1024</v>
       </c>
       <c r="B76">
+        <v>684491</v>
+      </c>
+      <c r="C76">
+        <v>955415</v>
+      </c>
+      <c r="D76">
+        <v>698041</v>
+      </c>
+      <c r="G76">
+        <v>1024</v>
+      </c>
+      <c r="H76">
         <v>53679</v>
       </c>
-      <c r="C76">
+      <c r="I76">
         <v>181155</v>
       </c>
-      <c r="D76">
+      <c r="J76">
         <v>57320</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>2048</v>
       </c>
       <c r="B77">
+        <v>5678045</v>
+      </c>
+      <c r="C77">
+        <v>7803559</v>
+      </c>
+      <c r="D77">
+        <v>5607672</v>
+      </c>
+      <c r="G77">
+        <v>2048</v>
+      </c>
+      <c r="H77">
         <v>649842</v>
       </c>
-      <c r="C77">
+      <c r="I77">
         <v>1554952</v>
       </c>
-      <c r="D77">
+      <c r="J77">
         <v>670206</v>
       </c>
     </row>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -40,6 +40,18 @@
     <t>对齐</t>
   </si>
   <si>
+    <t>加速比</t>
+  </si>
+  <si>
+    <t>问题规模</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
     <t>AVX x86</t>
   </si>
   <si>
@@ -47,6 +59,15 @@
   </si>
   <si>
     <t>AVX优化回代过程</t>
+  </si>
+  <si>
+    <t>整体优化</t>
+  </si>
+  <si>
+    <t>消去优化</t>
+  </si>
+  <si>
+    <t>回代优化</t>
   </si>
   <si>
     <t>neon arm 不对齐 -o2</t>
@@ -61,13 +82,13 @@
     <t>优化回代</t>
   </si>
   <si>
-    <t>整体优化</t>
-  </si>
-  <si>
     <t>neon arm 对齐 -o2</t>
   </si>
   <si>
-    <t>SSE</t>
+    <t>neon加速比</t>
+  </si>
+  <si>
+    <t>neon</t>
   </si>
   <si>
     <t>SSE -o2</t>
@@ -89,10 +110,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,139 +590,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,19 +1041,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="5" width="9.54545454545454"/>
+    <col min="1" max="1" width="24.4545454545455" customWidth="1"/>
+    <col min="2" max="4" width="9.54545454545454"/>
+    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="9.54545454545454"/>
+    <col min="9" max="9" width="8.54545454545454" customWidth="1"/>
+    <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1067,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>32</v>
       </c>
@@ -1040,8 +1086,17 @@
       <c r="C2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>64</v>
       </c>
@@ -1051,8 +1106,17 @@
       <c r="C3">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>128</v>
       </c>
@@ -1062,8 +1126,17 @@
       <c r="C4">
         <v>1923</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>1.09</v>
+      </c>
+      <c r="H4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>256</v>
       </c>
@@ -1073,8 +1146,17 @@
       <c r="C5">
         <v>14765</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>512</v>
       </c>
@@ -1084,8 +1166,17 @@
       <c r="C6">
         <v>120413</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>1.39</v>
+      </c>
+      <c r="H6">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1024</v>
       </c>
@@ -1095,8 +1186,17 @@
       <c r="C7">
         <v>948374</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7">
+        <v>1.36</v>
+      </c>
+      <c r="H7">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -1106,994 +1206,1646 @@
       <c r="C8">
         <v>7882569</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="F8">
+        <v>1024</v>
+      </c>
+      <c r="G8">
+        <v>1.3</v>
+      </c>
+      <c r="H8">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9">
+        <v>2048</v>
+      </c>
+      <c r="G9">
+        <v>1.29</v>
+      </c>
+      <c r="H9">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="13" spans="14:14">
+      <c r="N13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>32</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>32</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1.94</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>64</v>
       </c>
-      <c r="B12">
+      <c r="B16">
+        <v>226</v>
+      </c>
+      <c r="C16">
         <v>189</v>
       </c>
-      <c r="C12">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>240</v>
+      </c>
+      <c r="G16">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>283</v>
+      </c>
+      <c r="K16">
+        <v>262</v>
+      </c>
+      <c r="M16">
+        <v>64</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>2.55</v>
+      </c>
+      <c r="P16">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>128</v>
       </c>
-      <c r="B13">
+      <c r="B17">
+        <v>1644</v>
+      </c>
+      <c r="C17">
         <v>1418</v>
       </c>
-      <c r="C13">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>1806</v>
+      </c>
+      <c r="G17">
+        <v>642</v>
+      </c>
+      <c r="I17">
+        <v>128</v>
+      </c>
+      <c r="J17">
+        <v>1887</v>
+      </c>
+      <c r="K17">
+        <v>1954</v>
+      </c>
+      <c r="M17">
+        <v>128</v>
+      </c>
+      <c r="N17">
+        <v>1.16</v>
+      </c>
+      <c r="O17">
+        <v>2.81</v>
+      </c>
+      <c r="P17">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>256</v>
       </c>
-      <c r="B14">
+      <c r="B18">
+        <v>10972</v>
+      </c>
+      <c r="C18">
         <v>10275</v>
       </c>
-      <c r="C14">
-        <v>10972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="E18">
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <v>13949</v>
+      </c>
+      <c r="G18">
+        <v>4617</v>
+      </c>
+      <c r="I18">
+        <v>256</v>
+      </c>
+      <c r="J18">
+        <v>14695</v>
+      </c>
+      <c r="K18">
+        <v>14832</v>
+      </c>
+      <c r="M18">
+        <v>256</v>
+      </c>
+      <c r="N18">
+        <v>1.07</v>
+      </c>
+      <c r="O18">
+        <v>3.02</v>
+      </c>
+      <c r="P18">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>512</v>
       </c>
-      <c r="B15">
+      <c r="B19">
+        <v>90321</v>
+      </c>
+      <c r="C19">
         <v>83252</v>
       </c>
-      <c r="C15">
-        <v>90321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="E19">
+        <v>512</v>
+      </c>
+      <c r="F19">
+        <v>112984</v>
+      </c>
+      <c r="G19">
+        <v>38862</v>
+      </c>
+      <c r="I19">
+        <v>512</v>
+      </c>
+      <c r="J19">
+        <v>119634</v>
+      </c>
+      <c r="K19">
+        <v>137648</v>
+      </c>
+      <c r="M19">
+        <v>512</v>
+      </c>
+      <c r="N19">
+        <v>1.08</v>
+      </c>
+      <c r="O19">
+        <v>2.91</v>
+      </c>
+      <c r="P19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>1024</v>
       </c>
-      <c r="B16">
+      <c r="B20">
+        <v>758565</v>
+      </c>
+      <c r="C20">
         <v>667931</v>
       </c>
-      <c r="C16">
-        <v>758565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="E20">
+        <v>1024</v>
+      </c>
+      <c r="F20">
+        <v>914155</v>
+      </c>
+      <c r="G20">
+        <v>289122</v>
+      </c>
+      <c r="I20">
+        <v>1024</v>
+      </c>
+      <c r="J20">
+        <v>954175</v>
+      </c>
+      <c r="K20">
+        <v>1064954</v>
+      </c>
+      <c r="M20">
+        <v>1024</v>
+      </c>
+      <c r="N20">
+        <v>1.14</v>
+      </c>
+      <c r="O20">
+        <v>3.16</v>
+      </c>
+      <c r="P20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2048</v>
       </c>
-      <c r="B17">
+      <c r="B21">
+        <v>6205491</v>
+      </c>
+      <c r="C21">
         <v>5788728</v>
       </c>
-      <c r="C17">
-        <v>6205491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="E21">
+        <v>2048</v>
+      </c>
+      <c r="F21">
+        <v>7451105</v>
+      </c>
+      <c r="G21">
+        <v>2393976</v>
+      </c>
+      <c r="I21">
+        <v>2048</v>
+      </c>
+      <c r="J21">
+        <v>7899124</v>
+      </c>
+      <c r="K21">
+        <v>8533357</v>
+      </c>
+      <c r="M21">
+        <v>2048</v>
+      </c>
+      <c r="N21">
+        <v>1.07</v>
+      </c>
+      <c r="O21">
+        <v>3.11</v>
+      </c>
+      <c r="P21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>94</v>
+      </c>
+      <c r="I26">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>660</v>
+      </c>
+      <c r="C27">
+        <v>242</v>
+      </c>
+      <c r="D27">
+        <v>643</v>
+      </c>
+      <c r="E27">
+        <v>228</v>
+      </c>
+      <c r="G27">
+        <v>128</v>
+      </c>
+      <c r="H27">
+        <v>668</v>
+      </c>
+      <c r="I27">
+        <v>241</v>
+      </c>
+      <c r="J27">
+        <v>649</v>
+      </c>
+      <c r="K27">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>5442</v>
+      </c>
+      <c r="C28">
+        <v>1888</v>
+      </c>
+      <c r="D28">
+        <v>5268</v>
+      </c>
+      <c r="E28">
+        <v>1825</v>
+      </c>
+      <c r="G28">
+        <v>256</v>
+      </c>
+      <c r="H28">
+        <v>5432</v>
+      </c>
+      <c r="I28">
+        <v>1883</v>
+      </c>
+      <c r="J28">
+        <v>5318</v>
+      </c>
+      <c r="K28">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>512</v>
+      </c>
+      <c r="B29">
+        <v>59066</v>
+      </c>
+      <c r="C29">
+        <v>19822</v>
+      </c>
+      <c r="D29">
+        <v>58642</v>
+      </c>
+      <c r="E29">
+        <v>19580</v>
+      </c>
+      <c r="G29">
+        <v>512</v>
+      </c>
+      <c r="H29">
+        <v>52526</v>
+      </c>
+      <c r="I29">
+        <v>16614</v>
+      </c>
+      <c r="J29">
+        <v>49097</v>
+      </c>
+      <c r="K29">
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1024</v>
+      </c>
+      <c r="B30">
+        <v>450039</v>
+      </c>
+      <c r="C30">
+        <v>139485</v>
+      </c>
+      <c r="D30">
+        <v>435879</v>
+      </c>
+      <c r="E30">
+        <v>138292</v>
+      </c>
+      <c r="G30">
+        <v>1024</v>
+      </c>
+      <c r="H30">
+        <v>445419</v>
+      </c>
+      <c r="I30">
+        <v>135512</v>
+      </c>
+      <c r="J30">
+        <v>416068</v>
+      </c>
+      <c r="K30">
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>2048</v>
+      </c>
+      <c r="B31">
+        <v>3621703</v>
+      </c>
+      <c r="C31">
+        <v>1278103</v>
+      </c>
+      <c r="D31">
+        <v>3583085</v>
+      </c>
+      <c r="E31">
+        <v>1271913</v>
+      </c>
+      <c r="G31">
+        <v>2048</v>
+      </c>
+      <c r="H31">
+        <v>3500474</v>
+      </c>
+      <c r="I31">
+        <v>1272010</v>
+      </c>
+      <c r="J31">
+        <v>3672476</v>
+      </c>
+      <c r="K31">
+        <v>1255825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <v>51235539</v>
+      </c>
+      <c r="C32">
+        <v>17949660</v>
+      </c>
+      <c r="D32">
+        <v>59604247</v>
+      </c>
+      <c r="E32">
+        <v>25565096</v>
+      </c>
+      <c r="G32">
+        <v>4096</v>
+      </c>
+      <c r="H32">
+        <v>38651868</v>
+      </c>
+      <c r="I32">
+        <v>15734869</v>
+      </c>
+      <c r="J32">
+        <v>37399958</v>
+      </c>
+      <c r="K32">
+        <v>15529827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>94</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>3.33</v>
+      </c>
+      <c r="O36">
+        <v>32</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>128</v>
+      </c>
+      <c r="B37">
+        <v>660</v>
+      </c>
+      <c r="C37">
+        <v>228</v>
+      </c>
+      <c r="E37">
+        <v>128</v>
+      </c>
+      <c r="F37">
+        <v>668</v>
+      </c>
+      <c r="G37">
+        <v>227</v>
+      </c>
+      <c r="K37">
+        <v>64</v>
+      </c>
+      <c r="L37">
+        <v>2.6875</v>
+      </c>
+      <c r="M37">
+        <v>2.85</v>
+      </c>
+      <c r="O37">
+        <v>64</v>
+      </c>
+      <c r="P37">
+        <v>32</v>
+      </c>
+      <c r="Q37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>5442</v>
+      </c>
+      <c r="C38">
+        <v>1825</v>
+      </c>
+      <c r="E38">
+        <v>256</v>
+      </c>
+      <c r="F38">
+        <v>5432</v>
+      </c>
+      <c r="G38">
+        <v>1793</v>
+      </c>
+      <c r="K38">
+        <v>128</v>
+      </c>
+      <c r="L38">
+        <v>2.895</v>
+      </c>
+      <c r="M38">
+        <v>2.943</v>
+      </c>
+      <c r="O38">
+        <v>128</v>
+      </c>
+      <c r="P38">
+        <v>228</v>
+      </c>
+      <c r="Q38">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>512</v>
+      </c>
+      <c r="B39">
+        <v>59066</v>
+      </c>
+      <c r="C39">
+        <v>19580</v>
+      </c>
+      <c r="E39">
+        <v>512</v>
+      </c>
+      <c r="F39">
+        <v>52526</v>
+      </c>
+      <c r="G39">
+        <v>15965</v>
+      </c>
+      <c r="K39">
+        <v>256</v>
+      </c>
+      <c r="L39">
+        <v>2.98</v>
+      </c>
+      <c r="M39">
+        <v>3.03</v>
+      </c>
+      <c r="O39">
+        <v>256</v>
+      </c>
+      <c r="P39">
+        <v>1825</v>
+      </c>
+      <c r="Q39">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>1024</v>
+      </c>
+      <c r="B40">
+        <v>450039</v>
+      </c>
+      <c r="C40">
+        <v>138292</v>
+      </c>
+      <c r="E40">
+        <v>1024</v>
+      </c>
+      <c r="F40">
+        <v>445419</v>
+      </c>
+      <c r="G40">
+        <v>133411</v>
+      </c>
+      <c r="K40">
+        <v>512</v>
+      </c>
+      <c r="L40">
+        <v>3.017</v>
+      </c>
+      <c r="M40">
+        <v>3.29</v>
+      </c>
+      <c r="O40">
+        <v>512</v>
+      </c>
+      <c r="P40">
+        <v>19580</v>
+      </c>
+      <c r="Q40">
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>2048</v>
+      </c>
+      <c r="B41">
+        <v>3621703</v>
+      </c>
+      <c r="C41">
+        <v>1271913</v>
+      </c>
+      <c r="E41">
+        <v>2048</v>
+      </c>
+      <c r="F41">
+        <v>3500474</v>
+      </c>
+      <c r="G41">
+        <v>1255825</v>
+      </c>
+      <c r="K41">
+        <v>1024</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>3.34</v>
+      </c>
+      <c r="O41">
+        <v>1024</v>
+      </c>
+      <c r="P41">
+        <v>138292</v>
+      </c>
+      <c r="Q41">
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>4096</v>
+      </c>
+      <c r="B42">
+        <v>51235539</v>
+      </c>
+      <c r="C42">
+        <v>25565096</v>
+      </c>
+      <c r="E42">
+        <v>4096</v>
+      </c>
+      <c r="F42">
+        <v>38651868</v>
+      </c>
+      <c r="G42">
+        <v>15529827</v>
+      </c>
+      <c r="K42">
+        <v>2048</v>
+      </c>
+      <c r="L42">
+        <v>2.85</v>
+      </c>
+      <c r="M42">
+        <v>2.79</v>
+      </c>
+      <c r="O42">
+        <v>2048</v>
+      </c>
+      <c r="P42">
+        <v>1271913</v>
+      </c>
+      <c r="Q42">
+        <v>1255825</v>
+      </c>
+    </row>
+    <row r="43" spans="11:17">
+      <c r="K43">
+        <v>4096</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2.49</v>
+      </c>
+      <c r="O43">
+        <v>4096</v>
+      </c>
+      <c r="P43">
+        <v>25565096</v>
+      </c>
+      <c r="Q43">
+        <v>15529827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>169</v>
+      </c>
+      <c r="C47">
+        <v>249</v>
+      </c>
+      <c r="D47">
+        <v>165</v>
+      </c>
+      <c r="G47">
+        <v>64</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>36</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>1178</v>
+      </c>
+      <c r="C48">
+        <v>1945</v>
+      </c>
+      <c r="D48">
+        <v>1170</v>
+      </c>
+      <c r="G48">
+        <v>128</v>
+      </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <v>278</v>
+      </c>
+      <c r="J48">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>8685</v>
+      </c>
+      <c r="C49">
+        <v>14987</v>
+      </c>
+      <c r="D49">
+        <v>8959</v>
+      </c>
+      <c r="G49">
+        <v>256</v>
+      </c>
+      <c r="H49">
+        <v>774</v>
+      </c>
+      <c r="I49">
+        <v>2250</v>
+      </c>
+      <c r="J49">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>68650</v>
+      </c>
+      <c r="C50">
+        <v>120949</v>
+      </c>
+      <c r="D50">
+        <v>70050</v>
+      </c>
+      <c r="G50">
+        <v>512</v>
+      </c>
+      <c r="H50">
+        <v>5413</v>
+      </c>
+      <c r="I50">
+        <v>18194</v>
+      </c>
+      <c r="J50">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>538807</v>
+      </c>
+      <c r="C51">
+        <v>974042</v>
+      </c>
+      <c r="D51">
+        <v>522676</v>
+      </c>
+      <c r="G51">
+        <v>1024</v>
+      </c>
+      <c r="H51">
+        <v>45787</v>
+      </c>
+      <c r="I51">
+        <v>149472</v>
+      </c>
+      <c r="J51">
+        <v>47110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>2048</v>
+      </c>
+      <c r="B52">
+        <v>4308499</v>
+      </c>
+      <c r="C52">
+        <v>7651892</v>
+      </c>
+      <c r="D52">
+        <v>4362003</v>
+      </c>
+      <c r="G52">
+        <v>2048</v>
+      </c>
+      <c r="H52">
+        <v>728225</v>
+      </c>
+      <c r="I52">
+        <v>1396041</v>
+      </c>
+      <c r="J52">
+        <v>743682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="G56">
+        <v>32</v>
+      </c>
+      <c r="H56">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
         <v>64</v>
       </c>
-      <c r="B21">
-        <v>240</v>
-      </c>
-      <c r="C21">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="B57">
+        <v>209</v>
+      </c>
+      <c r="C57">
+        <v>253</v>
+      </c>
+      <c r="D57">
+        <v>223</v>
+      </c>
+      <c r="G57">
+        <v>64</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>47</v>
+      </c>
+      <c r="J57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
         <v>128</v>
       </c>
-      <c r="B22">
-        <v>1806</v>
-      </c>
-      <c r="C22">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="B58">
+        <v>1512</v>
+      </c>
+      <c r="C58">
+        <v>2005</v>
+      </c>
+      <c r="D58">
+        <v>1539</v>
+      </c>
+      <c r="G58">
+        <v>128</v>
+      </c>
+      <c r="H58">
+        <v>124</v>
+      </c>
+      <c r="I58">
+        <v>361</v>
+      </c>
+      <c r="J58">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
         <v>256</v>
       </c>
-      <c r="B23">
-        <v>13949</v>
-      </c>
-      <c r="C23">
-        <v>4617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="B59">
+        <v>10974</v>
+      </c>
+      <c r="C59">
+        <v>14905</v>
+      </c>
+      <c r="D59">
+        <v>11684</v>
+      </c>
+      <c r="G59">
+        <v>256</v>
+      </c>
+      <c r="H59">
+        <v>830</v>
+      </c>
+      <c r="I59">
+        <v>2875</v>
+      </c>
+      <c r="J59">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
         <v>512</v>
       </c>
-      <c r="B24">
-        <v>112984</v>
-      </c>
-      <c r="C24">
-        <v>38862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>1024</v>
-      </c>
-      <c r="B25">
-        <v>914155</v>
-      </c>
-      <c r="C25">
-        <v>289122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>2048</v>
-      </c>
-      <c r="B26">
-        <v>7451105</v>
-      </c>
-      <c r="C26">
-        <v>2393976</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>64</v>
-      </c>
-      <c r="B30">
-        <v>283</v>
-      </c>
-      <c r="C30">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31">
-        <v>1887</v>
-      </c>
-      <c r="C31">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>256</v>
-      </c>
-      <c r="B32">
-        <v>14695</v>
-      </c>
-      <c r="C32">
-        <v>14832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="B60">
+        <v>90062</v>
+      </c>
+      <c r="C60">
+        <v>120494</v>
+      </c>
+      <c r="D60">
+        <v>89566</v>
+      </c>
+      <c r="G60">
         <v>512</v>
       </c>
-      <c r="B33">
-        <v>119634</v>
-      </c>
-      <c r="C33">
-        <v>137648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>1024</v>
-      </c>
-      <c r="B34">
-        <v>954175</v>
-      </c>
-      <c r="C34">
-        <v>1064954</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>2048</v>
-      </c>
-      <c r="B35">
-        <v>7899124</v>
-      </c>
-      <c r="C35">
-        <v>8533357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>64</v>
-      </c>
-      <c r="B40">
-        <v>86</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>83</v>
-      </c>
-      <c r="E40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>128</v>
-      </c>
-      <c r="B41">
-        <v>660</v>
-      </c>
-      <c r="C41">
-        <v>242</v>
-      </c>
-      <c r="D41">
-        <v>643</v>
-      </c>
-      <c r="E41">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>256</v>
-      </c>
-      <c r="B42">
-        <v>5442</v>
-      </c>
-      <c r="C42">
-        <v>1888</v>
-      </c>
-      <c r="D42">
-        <v>5268</v>
-      </c>
-      <c r="E42">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>512</v>
-      </c>
-      <c r="B43">
-        <v>59066</v>
-      </c>
-      <c r="C43">
-        <v>19822</v>
-      </c>
-      <c r="D43">
-        <v>58642</v>
-      </c>
-      <c r="E43">
-        <v>19580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>1024</v>
-      </c>
-      <c r="B44">
-        <v>450039</v>
-      </c>
-      <c r="C44">
-        <v>139485</v>
-      </c>
-      <c r="D44">
-        <v>435879</v>
-      </c>
-      <c r="E44">
-        <v>138292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>2048</v>
-      </c>
-      <c r="B45">
-        <v>3621703</v>
-      </c>
-      <c r="C45">
-        <v>1278103</v>
-      </c>
-      <c r="D45">
-        <v>3583085</v>
-      </c>
-      <c r="E45">
-        <v>1271913</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>4096</v>
-      </c>
-      <c r="B46">
-        <v>51235539</v>
-      </c>
-      <c r="C46">
-        <v>17949660</v>
-      </c>
-      <c r="D46">
-        <v>59604247</v>
-      </c>
-      <c r="E46">
-        <v>25565096</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>32</v>
-      </c>
-      <c r="B51">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>11</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>64</v>
-      </c>
-      <c r="B52">
-        <v>94</v>
-      </c>
-      <c r="C52">
-        <v>35</v>
-      </c>
-      <c r="D52">
-        <v>82</v>
-      </c>
-      <c r="E52">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>128</v>
-      </c>
-      <c r="B53">
-        <v>668</v>
-      </c>
-      <c r="C53">
-        <v>241</v>
-      </c>
-      <c r="D53">
-        <v>649</v>
-      </c>
-      <c r="E53">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>256</v>
-      </c>
-      <c r="B54">
-        <v>5432</v>
-      </c>
-      <c r="C54">
-        <v>1883</v>
-      </c>
-      <c r="D54">
-        <v>5318</v>
-      </c>
-      <c r="E54">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
-        <v>512</v>
-      </c>
-      <c r="B55">
-        <v>52526</v>
-      </c>
-      <c r="C55">
-        <v>16614</v>
-      </c>
-      <c r="D55">
-        <v>49097</v>
-      </c>
-      <c r="E55">
-        <v>15965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>1024</v>
-      </c>
-      <c r="B56">
-        <v>445419</v>
-      </c>
-      <c r="C56">
-        <v>135512</v>
-      </c>
-      <c r="D56">
-        <v>416068</v>
-      </c>
-      <c r="E56">
-        <v>133411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>2048</v>
-      </c>
-      <c r="B57">
-        <v>3500474</v>
-      </c>
-      <c r="C57">
-        <v>1272010</v>
-      </c>
-      <c r="D57">
-        <v>3672476</v>
-      </c>
-      <c r="E57">
-        <v>1255825</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>4096</v>
-      </c>
-      <c r="B58">
-        <v>38651868</v>
-      </c>
-      <c r="C58">
-        <v>15734869</v>
-      </c>
-      <c r="D58">
-        <v>37399958</v>
-      </c>
-      <c r="E58">
-        <v>15529827</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" t="s">
-        <v>10</v>
+      <c r="H60">
+        <v>6510</v>
+      </c>
+      <c r="I60">
+        <v>22583</v>
+      </c>
+      <c r="J60">
+        <v>6921</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="B61">
-        <v>26</v>
+        <v>684491</v>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>955415</v>
       </c>
       <c r="D61">
-        <v>26</v>
+        <v>698041</v>
       </c>
       <c r="G61">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>53679</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>181155</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>57320</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>64</v>
+        <v>2048</v>
       </c>
       <c r="B62">
-        <v>169</v>
+        <v>5678045</v>
       </c>
       <c r="C62">
-        <v>249</v>
+        <v>7803559</v>
       </c>
       <c r="D62">
-        <v>165</v>
+        <v>5607672</v>
       </c>
       <c r="G62">
-        <v>64</v>
+        <v>2048</v>
       </c>
       <c r="H62">
+        <v>649842</v>
+      </c>
+      <c r="I62">
+        <v>1554952</v>
+      </c>
+      <c r="J62">
+        <v>670206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
         <v>13</v>
       </c>
-      <c r="I62">
-        <v>36</v>
-      </c>
-      <c r="J62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63">
-        <v>128</v>
-      </c>
-      <c r="B63">
-        <v>1178</v>
-      </c>
-      <c r="C63">
-        <v>1945</v>
-      </c>
-      <c r="D63">
-        <v>1170</v>
-      </c>
-      <c r="G63">
-        <v>128</v>
-      </c>
-      <c r="H63">
-        <v>90</v>
-      </c>
-      <c r="I63">
-        <v>278</v>
-      </c>
-      <c r="J63">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64">
-        <v>256</v>
-      </c>
-      <c r="B64">
-        <v>8685</v>
-      </c>
-      <c r="C64">
-        <v>14987</v>
-      </c>
-      <c r="D64">
-        <v>8959</v>
-      </c>
-      <c r="G64">
-        <v>256</v>
-      </c>
-      <c r="H64">
-        <v>774</v>
-      </c>
-      <c r="I64">
-        <v>2250</v>
-      </c>
-      <c r="J64">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
-        <v>512</v>
-      </c>
-      <c r="B65">
-        <v>68650</v>
-      </c>
-      <c r="C65">
-        <v>120949</v>
-      </c>
-      <c r="D65">
-        <v>70050</v>
-      </c>
-      <c r="G65">
-        <v>512</v>
-      </c>
-      <c r="H65">
-        <v>5413</v>
-      </c>
-      <c r="I65">
-        <v>18194</v>
-      </c>
-      <c r="J65">
-        <v>5405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
-        <v>1024</v>
-      </c>
-      <c r="B66">
-        <v>538807</v>
-      </c>
-      <c r="C66">
-        <v>974042</v>
-      </c>
-      <c r="D66">
-        <v>522676</v>
-      </c>
-      <c r="G66">
-        <v>1024</v>
-      </c>
-      <c r="H66">
-        <v>45787</v>
-      </c>
-      <c r="I66">
-        <v>149472</v>
-      </c>
-      <c r="J66">
-        <v>47110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
-        <v>2048</v>
-      </c>
-      <c r="B67">
-        <v>4308499</v>
-      </c>
-      <c r="C67">
-        <v>7651892</v>
-      </c>
-      <c r="D67">
-        <v>4362003</v>
-      </c>
-      <c r="G67">
-        <v>2048</v>
-      </c>
-      <c r="H67">
-        <v>728225</v>
-      </c>
-      <c r="I67">
-        <v>1396041</v>
-      </c>
-      <c r="J67">
-        <v>743682</v>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>10</v>
+      <c r="A70">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>1.71</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>2.85</v>
+      </c>
+      <c r="I70">
+        <v>1.82</v>
+      </c>
+      <c r="J70">
+        <v>3.33</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>2.46</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>1.04</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>2.6875</v>
       </c>
       <c r="G71">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>1.146</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B72">
-        <v>209</v>
+        <v>2.73</v>
       </c>
       <c r="C72">
-        <v>253</v>
+        <v>1.03</v>
       </c>
       <c r="D72">
-        <v>223</v>
+        <v>2.89</v>
       </c>
       <c r="G72">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>2.77</v>
       </c>
       <c r="I72">
-        <v>47</v>
+        <v>1.03</v>
       </c>
       <c r="J72">
-        <v>19</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B73">
-        <v>1512</v>
+        <v>2.88</v>
       </c>
       <c r="C73">
-        <v>2005</v>
+        <v>1.03</v>
       </c>
       <c r="D73">
-        <v>1539</v>
+        <v>2.98</v>
       </c>
       <c r="G73">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="H73">
-        <v>124</v>
+        <v>2.88</v>
       </c>
       <c r="I73">
-        <v>361</v>
+        <v>1.02</v>
       </c>
       <c r="J73">
-        <v>123</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="B74">
-        <v>10974</v>
+        <v>2.98</v>
       </c>
       <c r="C74">
-        <v>14905</v>
+        <v>1.007</v>
       </c>
       <c r="D74">
-        <v>11684</v>
+        <v>3.02</v>
       </c>
       <c r="G74">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="H74">
-        <v>830</v>
+        <v>3.16</v>
       </c>
       <c r="I74">
-        <v>2875</v>
+        <v>1.7</v>
       </c>
       <c r="J74">
-        <v>788</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B75">
-        <v>90062</v>
+        <v>3.226</v>
       </c>
       <c r="C75">
-        <v>120494</v>
+        <v>1.03</v>
       </c>
       <c r="D75">
-        <v>89566</v>
+        <v>3.25</v>
       </c>
       <c r="G75">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="H75">
-        <v>6510</v>
+        <v>3.287</v>
       </c>
       <c r="I75">
-        <v>22583</v>
+        <v>1.07</v>
       </c>
       <c r="J75">
-        <v>6921</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="B76">
-        <v>684491</v>
+        <v>2.83</v>
       </c>
       <c r="C76">
-        <v>955415</v>
+        <v>1.01</v>
       </c>
       <c r="D76">
-        <v>698041</v>
+        <v>2.845</v>
       </c>
       <c r="G76">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="H76">
-        <v>53679</v>
+        <v>2.75</v>
       </c>
       <c r="I76">
-        <v>181155</v>
+        <v>0.95</v>
       </c>
       <c r="J76">
-        <v>57320</v>
+        <v>2.787</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B77">
-        <v>5678045</v>
+        <v>2.85</v>
       </c>
       <c r="C77">
-        <v>7803559</v>
+        <v>0.86</v>
       </c>
       <c r="D77">
-        <v>5607672</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H77">
-        <v>649842</v>
+        <v>2.45</v>
       </c>
       <c r="I77">
-        <v>1554952</v>
+        <v>1.03</v>
       </c>
       <c r="J77">
-        <v>670206</v>
+        <v>2.42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/lab2/data.xlsx
+++ b/lab2/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>普通高斯消元串行算法x86</t>
   </si>
@@ -720,12 +720,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,1805 +1044,2137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.4545454545455" customWidth="1"/>
-    <col min="2" max="4" width="9.54545454545454"/>
-    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="9.54545454545454"/>
-    <col min="9" max="9" width="8.54545454545454" customWidth="1"/>
-    <col min="10" max="11" width="9.54545454545454"/>
+    <col min="1" max="1" width="24.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.54545454545454" style="1"/>
+    <col min="5" max="5" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.54545454545454" style="1"/>
+    <col min="9" max="9" width="8.54545454545454" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.54545454545454" style="1"/>
+    <col min="12" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="9.54545454545454" style="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>246</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>241</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1.23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1966</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1923</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>64</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.09</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15284</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>14765</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>128</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1.2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>123336</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>120413</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>256</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1.39</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>1.71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>987865</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>948374</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>512</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1.36</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>1.76</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8015784</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7882569</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1024</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>1.89</v>
       </c>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2048</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1.29</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>1.84</v>
       </c>
     </row>
     <row r="13" spans="14:14">
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>32</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>32</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>33</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>17</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>32</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>33</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>33</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>32</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>1.94</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>64</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>226</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>189</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>64</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>240</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>94</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>64</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>283</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>262</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>64</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>1.2</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>2.55</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>128</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1644</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1418</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>128</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1806</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>642</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>128</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>1887</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>1954</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>128</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>1.16</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>2.81</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>0.97</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>256</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>10972</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>10275</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>256</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>13949</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>4617</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>256</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>14695</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>14832</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>256</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>1.07</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>3.02</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>512</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>90321</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>83252</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>512</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>112984</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>38862</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>512</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>119634</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>137648</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>512</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>1.08</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>2.91</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>0.87</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1024</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>758565</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>667931</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>1024</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>914155</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>289122</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>1024</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>954175</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1064954</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>1024</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>1.14</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>3.16</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>2048</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6205491</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>5788728</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>2048</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>7451105</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>2393976</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>2048</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>7899124</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>8533357</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>2048</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>1.07</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>3.11</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>12</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>32</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>7</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>11</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>64</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>86</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>35</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>83</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>32</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>64</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>94</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>35</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>82</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>128</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>660</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>242</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>643</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>228</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>128</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>668</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>241</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>649</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>256</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>5442</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1888</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>5268</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1825</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>256</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>5432</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>1883</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>5318</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>1793</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>512</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>59066</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>19822</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>58642</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>19580</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>512</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>52526</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>16614</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>49097</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>15965</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>1024</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>450039</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>139485</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>435879</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>138292</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1024</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>445419</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>135512</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>416068</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>133411</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>2048</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>3621703</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1278103</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>3583085</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1271913</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>2048</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>3500474</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>1272010</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>3672476</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>1255825</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>4096</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>51235539</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>17949660</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>59604247</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>25565096</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>4096</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>38651868</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>15734869</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>37399958</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>15529827</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>12</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>6</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>32</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>6</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>64</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>86</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>64</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>94</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>33</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>32</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>2</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>3.33</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>32</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>6</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>128</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>660</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>228</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>128</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>668</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>227</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>64</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>2.6875</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>2.85</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>64</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>32</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>256</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>5442</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1825</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>256</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>5432</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>1793</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>128</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>2.895</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>2.943</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>128</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>228</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>512</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>59066</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>19580</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>512</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>52526</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>15965</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>256</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>2.98</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <v>3.03</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <v>256</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="1">
         <v>1825</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="1">
         <v>1793</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>1024</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>450039</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>138292</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>1024</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>445419</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>133411</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>512</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>3.017</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <v>3.29</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <v>512</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="1">
         <v>19580</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>15965</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>2048</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>3621703</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1271913</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>2048</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>3500474</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>1255825</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>1024</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>3.25</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>3.34</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>1024</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="1">
         <v>138292</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="1">
         <v>133411</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>4096</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>51235539</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>25565096</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>4096</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>38651868</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>15529827</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>2048</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="1">
         <v>2.85</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <v>2.79</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <v>2048</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="1">
         <v>1271913</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="1">
         <v>1255825</v>
       </c>
     </row>
     <row r="43" spans="11:17">
-      <c r="K43">
+      <c r="K43" s="1">
         <v>4096</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <v>2</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>2.49</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <v>4096</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="1">
         <v>25565096</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>15529827</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>26</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>34</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>26</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>32</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>5</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>64</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>169</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>249</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>165</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>64</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>13</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>36</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>128</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>1178</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1945</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1170</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>128</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>90</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>278</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>256</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>8685</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>14987</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>8959</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>256</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>774</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>2250</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>643</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
         <v>512</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>68650</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>120949</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>70050</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>512</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>5413</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>18194</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>5405</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
+      <c r="P50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
         <v>1024</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>538807</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>974042</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>522676</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>1024</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>45787</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>149472</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>47110</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
+      <c r="N51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
         <v>2048</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>4308499</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>7651892</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>4362003</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>2048</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>728225</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>1396041</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>743682</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
+      <c r="N52" s="1">
+        <v>32</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17">
+      <c r="N53" s="1">
+        <v>64</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17">
+      <c r="N54" s="1">
+        <v>128</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
+      <c r="N55" s="1">
+        <v>256</v>
+      </c>
+      <c r="O55" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
         <v>32</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>31</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>34</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>31</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>32</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>4</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>6</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
+      <c r="N56" s="1">
+        <v>512</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
         <v>64</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>209</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>253</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>223</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>64</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>20</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>47</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
+      <c r="N57" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
         <v>128</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1512</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>2005</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1539</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>128</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>124</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>361</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>123</v>
       </c>
+      <c r="N58" s="1">
+        <v>2048</v>
+      </c>
+      <c r="O58" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>256</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>10974</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>14905</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>11684</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>256</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>830</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>2875</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>788</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
         <v>512</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>90062</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>120494</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>89566</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>512</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>6510</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>22583</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>6921</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
         <v>1024</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>684491</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>955415</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>698041</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>1024</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>53679</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>181155</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>57320</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
+      <c r="N61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
         <v>2048</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>5678045</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>7803559</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>5607672</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>2048</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>649842</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>1554952</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>670206</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
+      <c r="N62" s="1">
+        <v>32</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17">
+      <c r="N63" s="1">
+        <v>64</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17">
+      <c r="N64" s="1">
+        <v>128</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="P64" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17">
+      <c r="N65" s="1">
+        <v>256</v>
+      </c>
+      <c r="O65" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17">
+      <c r="N66" s="1">
+        <v>512</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17">
+      <c r="N67" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="P67" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17">
+      <c r="N68" s="1">
+        <v>2048</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="P68" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="71" spans="16:16">
+      <c r="P71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J72" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
+      <c r="N72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
         <v>32</v>
       </c>
-      <c r="B70">
+      <c r="B73" s="1">
         <v>1.71</v>
       </c>
-      <c r="C70">
+      <c r="C73" s="1">
         <v>1</v>
       </c>
-      <c r="D70">
+      <c r="D73" s="1">
         <v>2</v>
       </c>
-      <c r="G70">
+      <c r="G73" s="1">
         <v>32</v>
       </c>
-      <c r="H70">
+      <c r="H73" s="1">
         <v>2.85</v>
       </c>
-      <c r="I70">
+      <c r="I73" s="1">
         <v>1.82</v>
       </c>
-      <c r="J70">
+      <c r="J73" s="1">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
+      <c r="N73" s="1">
+        <v>32</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
         <v>64</v>
       </c>
-      <c r="B71">
+      <c r="B74" s="1">
         <v>2.46</v>
       </c>
-      <c r="C71">
+      <c r="C74" s="1">
         <v>1.04</v>
       </c>
-      <c r="D71">
+      <c r="D74" s="1">
         <v>2.6875</v>
       </c>
-      <c r="G71">
+      <c r="G74" s="1">
         <v>64</v>
       </c>
-      <c r="H71">
+      <c r="H74" s="1">
         <v>2.68</v>
       </c>
-      <c r="I71">
+      <c r="I74" s="1">
         <v>1.146</v>
       </c>
-      <c r="J71">
+      <c r="J74" s="1">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
+      <c r="N74" s="1">
+        <v>64</v>
+      </c>
+      <c r="O74" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
         <v>128</v>
       </c>
-      <c r="B72">
+      <c r="B75" s="1">
         <v>2.73</v>
       </c>
-      <c r="C72">
+      <c r="C75" s="1">
         <v>1.03</v>
       </c>
-      <c r="D72">
+      <c r="D75" s="1">
         <v>2.89</v>
       </c>
-      <c r="G72">
+      <c r="G75" s="1">
         <v>128</v>
       </c>
-      <c r="H72">
+      <c r="H75" s="1">
         <v>2.77</v>
       </c>
-      <c r="I72">
+      <c r="I75" s="1">
         <v>1.03</v>
       </c>
-      <c r="J72">
+      <c r="J75" s="1">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73">
+      <c r="N75" s="1">
+        <v>128</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
         <v>256</v>
       </c>
-      <c r="B73">
+      <c r="B76" s="1">
         <v>2.88</v>
       </c>
-      <c r="C73">
+      <c r="C76" s="1">
         <v>1.03</v>
       </c>
-      <c r="D73">
+      <c r="D76" s="1">
         <v>2.98</v>
       </c>
-      <c r="G73">
+      <c r="G76" s="1">
         <v>256</v>
       </c>
-      <c r="H73">
+      <c r="H76" s="1">
         <v>2.88</v>
       </c>
-      <c r="I73">
+      <c r="I76" s="1">
         <v>1.02</v>
       </c>
-      <c r="J73">
+      <c r="J76" s="1">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
+      <c r="N76" s="1">
+        <v>256</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="P76" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
         <v>512</v>
       </c>
-      <c r="B74">
+      <c r="B77" s="1">
         <v>2.98</v>
       </c>
-      <c r="C74">
+      <c r="C77" s="1">
         <v>1.007</v>
       </c>
-      <c r="D74">
+      <c r="D77" s="1">
         <v>3.02</v>
       </c>
-      <c r="G74">
+      <c r="G77" s="1">
         <v>512</v>
       </c>
-      <c r="H74">
+      <c r="H77" s="1">
         <v>3.16</v>
       </c>
-      <c r="I74">
+      <c r="I77" s="1">
         <v>1.7</v>
       </c>
-      <c r="J74">
+      <c r="J77" s="1">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75">
+      <c r="N77" s="1">
+        <v>512</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="P77" s="1">
+        <v>1.007</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
         <v>1024</v>
       </c>
-      <c r="B75">
+      <c r="B78" s="1">
         <v>3.226</v>
       </c>
-      <c r="C75">
+      <c r="C78" s="1">
         <v>1.03</v>
       </c>
-      <c r="D75">
+      <c r="D78" s="1">
         <v>3.25</v>
       </c>
-      <c r="G75">
+      <c r="G78" s="1">
         <v>1024</v>
       </c>
-      <c r="H75">
+      <c r="H78" s="1">
         <v>3.287</v>
       </c>
-      <c r="I75">
+      <c r="I78" s="1">
         <v>1.07</v>
       </c>
-      <c r="J75">
+      <c r="J78" s="1">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76">
+      <c r="N78" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O78" s="1">
+        <v>3.226</v>
+      </c>
+      <c r="P78" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
         <v>2048</v>
       </c>
-      <c r="B76">
+      <c r="B79" s="1">
         <v>2.83</v>
       </c>
-      <c r="C76">
+      <c r="C79" s="1">
         <v>1.01</v>
       </c>
-      <c r="D76">
+      <c r="D79" s="1">
         <v>2.845</v>
       </c>
-      <c r="G76">
+      <c r="G79" s="1">
         <v>2048</v>
       </c>
-      <c r="H76">
+      <c r="H79" s="1">
         <v>2.75</v>
       </c>
-      <c r="I76">
+      <c r="I79" s="1">
         <v>0.95</v>
       </c>
-      <c r="J76">
+      <c r="J79" s="1">
         <v>2.787</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77">
+      <c r="N79" s="1">
+        <v>2048</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="P79" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>2.845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
         <v>4096</v>
       </c>
-      <c r="B77">
+      <c r="B80" s="1">
         <v>2.85</v>
       </c>
-      <c r="C77">
+      <c r="C80" s="1">
         <v>0.86</v>
       </c>
-      <c r="D77">
+      <c r="D80" s="1">
         <v>2</v>
       </c>
-      <c r="G77">
+      <c r="G80" s="1">
         <v>4096</v>
       </c>
-      <c r="H77">
+      <c r="H80" s="1">
         <v>2.45</v>
       </c>
-      <c r="I77">
+      <c r="I80" s="1">
         <v>1.03</v>
       </c>
-      <c r="J77">
+      <c r="J80" s="1">
         <v>2.42</v>
+      </c>
+      <c r="N80" s="1">
+        <v>4096</v>
+      </c>
+      <c r="O80" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
